--- a/Testdata/TC_23.xlsx
+++ b/Testdata/TC_23.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Kh0AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAyd0lJVsWRhvwJocoKQokVVl5KYa7I2mq5S67MyuJbymQIEWaoigKp0iv6FOKAnWNNgFSu5f/Eliy+9S/0DOXvZFUzFUNwdo55zszZ86c24zQO9cz37gkEaNhsFexa1bFIIEbejQ426vE/LRqP6i846DutUv8QxzhGeEANkAqYLvXjO5Vzjmf75rm1dVV7apRC6Mzs25Ztvlk0B+752SGqzRgHAcuqaRS3tulKg5qe7MB4djDHCvJvUpv3Ku1CXU7QBvgAJ+RqNaKGQ0IY92AU04JE5IRwZy0O4PvqY059dqDmo3MFXqGbMXU9xSugFR0jYNlyYTOiFO37J2qtVNtWBO7vmvbu41G7cHDrfcSwRSI+pjxMYkuqSsJY45ncylu7TQsu27bjQYy14JgrswADhr63ohcUka8NvF9Vsoipj7Apsth1+WMaSEzJ6snur8KjyM8P59Q7pNyaowGLWMWaF2ySRy0H0bEBfvdS6UDcjWMtFkn8z5wJ+c04osOXpSe64iRaDgXRion6qBOGPCmTyJ+NIezJh64AjAcHsUEmXcwM6EOZS580yAmnnOKfZYXKjDRcRhdsDl2yQHEsSnmuAr8EHvgcJwyTt1s0RUGOozCOcwIi7dC39uHWTV4DSOduReAicWyrTC8yLRbx0TyVOX5wpnOME/gK3Q0Pg+vhoG/GMdT5kZ0SrxOK0Gv5SERkFq6HTMezkCLjIQULUcZDMwF/IMYXOagDnHpDPuHPtiRORC9RQJqxjw8pbwd+vEsYIlaS1R0DJuakOt0k+kYDeF8A2H3MOgFCV5Zei2rKDAKr9I1VxnSDjlyk7nJia8ylsEdoCUnuMqRhyJ2uU99KBH548hRi44xPieEr/UKxUEiG+6LouO0FgfxbAoRNoUwu5SrMmRmfASuCu4OejkWFJKq/JlY1q78AT1SNuoG3t24hIlgudxajg28JRKCPfktHwcXQD2m/PygmexlDQcpC9yJX+UhCN65jxeSnFopT0O9wPVjj6ic0AtOpYsK3dSh3slGK6Q+hLmDcLCYLOaQmhnd5fCxV4Fivct4BO1AxXHDOODRQiQPZGro22RYPA3kAtjfWOY0Ij+MoQtZ7MeB2w69zVfzlHWOAso31zCMI5URNxeR1hPJMWYdItKMzPsby7tl9sSiUvBZQGZhQN3NrQ1GFtp799gIS6JqYwmi4mtjvA+lXVU+Eesbi0XQQkKtK7VMk7HQpdJZdXh4OXnzjpDpkFMc+9C+caiyZ2nuXSajJrtYxuRJ6CjykwzoiOaYQXfserOaC/2D6ABrbjgTBBOa0uMxMvN40QS5pBuc9XFwFkObkeaVZXqaf0WJnEQ4YGI7aVexlIrXg1CSp1S346jkNYylI6jkFQIXmUs4NCGzeRhhfwCGofva7XTLBN3IAPNzPYLa5hM3MbKZiaZSRc0Sxd8Gk0VKbUMEvE6TS0QJEntRfXiGyWhI7HIAYem3sU+nkcqqSSlfx4MDy/rDJP+KzZXsFZMzgLsYVN/vkoVo0LOBpkuXtROGcmCRSJ3xaGunvm016tDZiDGSOx4R7BtdCGZOjF5wSRifgdiuMSKMevBFsb9rvEumhEIRlCbSZai0dF4O7Sd5XqrSBH2LlCIA+o0zCmVkFZhyMgHnhODIX+SAaqv90AXc7Y//ffOb569efH778dM3X37w33/86tU/f3bz7EP4uP3r324++aXapgKjCZ76RCo0ae3sWI0t8LOUhIRxTdkde7HLJe3kRDbF6Rjpu50ctLu99uN+S+aTlJiIq5JiimvjIoyz4VhtQi4kj9RMPEFBnEmSn/S4wM2VKEdc4y5JEZ3n3yWobPH65eevX/75TmltsKzXsh892q7a9be2YnAhtldwaSvWL9QAAd6qWtvVej0HXsKgkSoAqZ16ntOwrUdWHW7daS73UkdeB1pm6Zkm+MxcklOktmqPUhfIjxOmdPwJhEjKVqGQG2gX/fInb/7ytIDS1tWU4iygnGxjxGJmMpBTH4wmxnh4NGp3jUl3LPwk4+VwavJvAOvV03gqOFUQxNj/jgHFHYqZUYEbUcUITw2C3XNjAZGYi8OCs62jqoXuOeWylo+jMJ6rE8kJZNQ1yDSbrJVYk2skT9pzJelkrDVwpevN379YJ6A30ska2vQJJE9DBY4i5fg6aj/716uvPnr14sXt85/ffPWjwgx6nfRlAPwcoik/TN0eUp6uN0sUdDyWxrywvp+rL5ooLlKHIQ04c+wH8g6lRwhEbTGb/I16Myh5cmJpL6AvUdC7mHWvuQ5s5wCZRQLoOcdQbcPs7pkSVA7P7Pqf3/7u9tdf3H76/M1Hf7r5+I83n3z6+uXv3zz7g4q626fPb3/6TGf55UIgdRE3WtUEGvKJxDVENBqidhtfv/8LIwi5AS2HEcuM9PX7n+UmE4rK5iSbGVq6VJGiCivQvLCQM3KqpDoU5FIR1QC0RQlrpAhdxMI5dbNF3quKqUTcSca3epNqzIgRQjf1bdhJEZwJbyqnRVRJPXxo1e265iptxBammOVM/9gPp9BkJAz5ALEEKUh9s0CGles97g9bzX4GUUoMI49Ewg3VB0paSlFSeiwZJa6WowAXGj839sWb0QpslZXOnEtjpn58OW16Iv2tf6ooIFA7jiLVEAX6OX8cz6EZTl7p7ubLl8tc/3ugetV8R5yNe50iH8Y5LhTCIlsQJF+mJs1SaarHxDuPamcPhGmyIfAKr51gDv1irzqtS+grI1PknW4UhdHa5JNxEtgAOmnIKGZm8RQjz1R13V52VgkhSXjph7r56R2GHeITXu4528ykB+HlvWXh7MuK9tjQ97Qxy109UrNkE+Tf9IWj/L9P+srZmlEEjZV4ACz9Bp9cXEdw3y2pjdqKFBQ3QFhdP5Lv04jxJyIT6C9FOUkpJ6pDfSIuXOpDjk+cxrYiAMDMz24W1ExCl6u/rIR+n85oyWuhlcR3cRKw5XyuWrheOU8RpeWAXEODmZsBkuL0B1A21DtKmdmUw0IuTeXF2yWjZ+e8rGIPp5h4ZGpV3SmpV7c8a6f6iJBG1bbhf+zW65a1LV4+9eSQOSi5KrmImRxY9hdP53+WdoZdKh0AAA==</t>
+          <t>Ix8AAB+LCAAAAAAAAAOlWVtPI8kV/istPyVSTF8MLKCiV77BWrEBYROGfYnK3WWo0O52uqoBv22kRBttNoqiaDbaXJWnjSJlMkp2pc1MLv9lNTCTp/yFnLr0zTY7NEFIdJ1bnTp16pyvCvTuzTQwrkjMaBTu1uw1q2aQ0It8Gp7v1hI+qdubtXdd1L3xSHCEYzwlHIQN0ArZzg2ju7ULzmc7pnl9fb123ViL4nPTsSzbfDLoD70LMsV1GjKOQ4/UMi3/7Vo1F7X96YBw7GOOleZurTfsrbUJ9TpAG+AQn5N4rZUwGhLGuiGnnBImNGOCOWl3Bt9RC3Odtc01G5lL9FyyldDAV3IlSUXXcjAtGdEpcR3LserWVt1ZH9nOjrW5Y2+uOVuN91PFTBD1MeNDEl9RTxKGHE9nUt3actZtx9q0N5G5Ughs5QFw0WHgH5MryojfJkHAKkXE1BvY9DisulowLWQWdLWhx7uwH+PZxYjygFRV34ti4kGgHjX3Abk+jHX8RrM+cEcXNObzDp5XtnXCSHw4E9GopuqiThTyZkBifjKDTSU+7DkwXB4nBJn3MHOlDmUefNMwIb47wQErKpWY6DSKL9kMe+QADqwpbFyHQYR9yCxOGadePukSAx3F0QwswuStKPD3wKoWXsHILPdCCLGYthVFl7l3q5hI5oDMBtjTKeap+BIdDS+i68MwmA+TMfNiOiZ+p5VKr+QhcfK0djthPJqCFzkJKVqBMhiYc/iBw7bIQR3i0SkOjgKII3MbYKhEQM2ERxPK21GQTEOWurVARaewqBG5yRaZjdEh7G8o4h6FvTCVV5FeySorHEfX2ZzLDBmHArnJvHTHlxmLwh2gpTu4zJGbIla5RwPoBcXtKFDLiTG8IISvzArFQaLs7Ynu4rbmB8l0DCdsDMfsSs7KkJnzEaQqpDv45VrQMeryd2RZO/IX/MjYqBv698ulTATTFeZybeAtkBCsKWgFOLwE6inlFwfNdC0rOEhF4F75ZR6CwzsL8FySsygVaagXekHiE1UTeuFEpqjwTW3qvWy0ROrDMXcRDuej+QxqMKM7HD52a9CVdxiPoe/XXC9KQh7PRfFAphZ9mw5LxqGcAAcP1pnE5PsJwI35XhJ67ch/+Gy+is5JSPnDPYySWFXEh6vI6InimLAOEWVG1v0H63tV1sTiSuLTkEyjkHoPjzYEWXjvP2IhLD1VD9Yg6nw9WD6A1q46nzjrD1aLAStCr6s0TZOxyKMyWfXx8Av65j1HpkMmOAkAp3HosudZ7V0koya7XJQpktBJHKQV0BUomAEM9vzpmgf4QUC9NS+aCoIJ6PN0iMyivABBHumG530cnicAM7K6skjP6q9okaMYh0wsJ0MVC6V4tRBK65RCO64qXoeJTARVvCLgInNBDo3IdBbFOBhAYOieTjsNmQCNDDC/0CPobQHx0iCbuWqmVfYsdfxtYrJJqWWIA6/L5AJRCom1KMCdy+Q0JFY5gGMZtHFAx7GqqmkrX8WDDcvxYVp/xeIqYsV0D+DSBd3322QukHg+0HSZsnbKUAksCqk7PF7fcjashgPIRoyRXPExwYHRhcPMidELrwjjU1DbMY4Joz58URzsGO+RMaHQBGWIdBuqrF3UQ3tpnZeuNMHfMqUsAHjjnEIbWRbMOLmCe0ZwHMwLgmqp/cgDubsf//v2N89fvfjs7qOnb7744X//8atX//zZ7bMfwcfdX/92+/Ev1TKVMBrhcUCkQ6PW1pbVWIc8y0hIBNeU6NhPPC5pZ2cSFGdjpC9xctDu9tr7/ZasJxkxVVctxRT3w3mU5MOhWoScSG6pmWaCEnFHaX3S4xK30KJccV+7ImXpIv8+RRWL1y8/e/3yz/dq64DlWMve3t6o285boZhj2faSXAbF+qUeIITX69ZG3XEKwgsy6Fg1gCxOPd9t2Na25TQsO6vlfpbIq4QWWdrSCJ+bC3qK1FbwKEuB4jhlysQfwRHJ2OooFAY6Rb/4yZu/PC1J6ehqStkKOCdhjJjMTAfS9MHxyBgenhy3u8aoOxR5kvMKcsr41wjr2bPzVEqqMExw8C0Dmjs0M6MGN6KaEU0Mgr0LYw4nsXAOS8m2iqomeqTJRS/34yiZqR0pKOTUFZJZNVmpsaLWSJ6M51LRyVkrxJWvt3//fJWCXkgnB7Tu8aBlTMMsLyUNlTiKVODrU/vpv159+eGrFy/unv/89ssflCzoebKXAchzOE3FYZb2UPJ0v1mgoNOhDOal9d1Cf9FEcZE6imjImSvetPIRAlVbWJN/UW8KLU8alvEC+gIFvYdZ94brg+0eILNMAD9nGLptlN89M4Kq4Xlc//Pb3939+vO7T56/+fBPtx/98fbjT16//P2bZ39Qp+7u6fO7nz7TVX6xEUhfxI1WgUBDPpF4hjiNhujdxlcf/MIII24A5DASWZG++uDTgjHhqAQnuWWAdJkjZReWRIvKQs8ouJL5UNLLVBQAaIsW1sgkdBOLZtTLJ3m/LkyJcycZ3+iN6gkjRgRo6puwkrJwrvxQPa2iWurRO5ZjO5qrvBFLGGNWCP1+EI0BZKQM+QCxIFLS+nqFXFbOt98/bDX7uYhy4jD2SSzSUH2gHktBZZpeBQpwAex5SSDeiZbEllko/SqULlM/uEyavih5q58nShKoncSxAkGhfqsfJjMAwOnL3P18+VpZwLwHCp8WUXA+7nXKfBgXuND8ymxBkHxZjjRLlaYeE287CsIeiNDkQ+CVXjghHPo5XqGrK8CSsSlqTTeOo3hlwck5qdgA0DNUETOPeCZjiikV0vbzvUoJaZHLPtRtT68w6pCA8Mpv1an2ILp6tC7sfVXVHjsMfB3MateNLCy5geKDvUiUqs404xhgk3jeq/zC3qfhZa/a6t2N9c0Ny26MG9uNd/wtb9tpjLG9QfDGFvzZ3AbgKI2K26cwIW4u4u5WbRIAi2X1/J59DDfvitZUgKWiuItCpOSB1IU9G6M9GjP+RJQo/aUoZxnlTEHnJ8I/9SHHZ25jQxFAwCxOZpa8TusLV//biYI+ndKK91UrLUJlI5AGs5nCllU3FHreAbkB5FuwANV6/D3oZ+qBp4o1daqgyGf6qa1hMq5szkyVj4AvEutx2l0fcNnjteV/SmjwfzggkddjTfRCRs8veNV9dba3G2STOHVn4nn1dRjUoRuP6z6ebNuWNWn4G4540dbGoTtQcl1xEtFTKIN7RXU9c+Ff3e7/AGhKcYIjHwAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175085</v>
+        <v>0.2499825759175076</v>
       </c>
     </row>
     <row r="22">
@@ -758,4 +758,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46C1890-90CA-4240-AB04-9C8113C4B136}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_23.xlsx
+++ b/Testdata/TC_23.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Ix8AAB+LCAAAAAAAAAOlWVtPI8kV/istPyVSTF8MLKCiV77BWrEBYROGfYnK3WWo0O52uqoBv22kRBttNoqiaDbaXJWnjSJlMkp2pc1MLv9lNTCTp/yFnLr0zTY7NEFIdJ1bnTp16pyvCvTuzTQwrkjMaBTu1uw1q2aQ0It8Gp7v1hI+qdubtXdd1L3xSHCEYzwlHIQN0ArZzg2ju7ULzmc7pnl9fb123ViL4nPTsSzbfDLoD70LMsV1GjKOQ4/UMi3/7Vo1F7X96YBw7GOOleZurTfsrbUJ9TpAG+AQn5N4rZUwGhLGuiGnnBImNGOCOWl3Bt9RC3Odtc01G5lL9FyyldDAV3IlSUXXcjAtGdEpcR3LserWVt1ZH9nOjrW5Y2+uOVuN91PFTBD1MeNDEl9RTxKGHE9nUt3actZtx9q0N5G5Ughs5QFw0WHgH5MryojfJkHAKkXE1BvY9DisulowLWQWdLWhx7uwH+PZxYjygFRV34ti4kGgHjX3Abk+jHX8RrM+cEcXNObzDp5XtnXCSHw4E9GopuqiThTyZkBifjKDTSU+7DkwXB4nBJn3MHOlDmUefNMwIb47wQErKpWY6DSKL9kMe+QADqwpbFyHQYR9yCxOGadePukSAx3F0QwswuStKPD3wKoWXsHILPdCCLGYthVFl7l3q5hI5oDMBtjTKeap+BIdDS+i68MwmA+TMfNiOiZ+p5VKr+QhcfK0djthPJqCFzkJKVqBMhiYc/iBw7bIQR3i0SkOjgKII3MbYKhEQM2ERxPK21GQTEOWurVARaewqBG5yRaZjdEh7G8o4h6FvTCVV5FeySorHEfX2ZzLDBmHArnJvHTHlxmLwh2gpTu4zJGbIla5RwPoBcXtKFDLiTG8IISvzArFQaLs7Ynu4rbmB8l0DCdsDMfsSs7KkJnzEaQqpDv45VrQMeryd2RZO/IX/MjYqBv698ulTATTFeZybeAtkBCsKWgFOLwE6inlFwfNdC0rOEhF4F75ZR6CwzsL8FySsygVaagXekHiE1UTeuFEpqjwTW3qvWy0ROrDMXcRDuej+QxqMKM7HD52a9CVdxiPoe/XXC9KQh7PRfFAphZ9mw5LxqGcAAcP1pnE5PsJwI35XhJ67ch/+Gy+is5JSPnDPYySWFXEh6vI6InimLAOEWVG1v0H63tV1sTiSuLTkEyjkHoPjzYEWXjvP2IhLD1VD9Yg6nw9WD6A1q46nzjrD1aLAStCr6s0TZOxyKMyWfXx8Av65j1HpkMmOAkAp3HosudZ7V0koya7XJQpktBJHKQV0BUomAEM9vzpmgf4QUC9NS+aCoIJ6PN0iMyivABBHumG530cnicAM7K6skjP6q9okaMYh0wsJ0MVC6V4tRBK65RCO64qXoeJTARVvCLgInNBDo3IdBbFOBhAYOieTjsNmQCNDDC/0CPobQHx0iCbuWqmVfYsdfxtYrJJqWWIA6/L5AJRCom1KMCdy+Q0JFY5gGMZtHFAx7GqqmkrX8WDDcvxYVp/xeIqYsV0D+DSBd3322QukHg+0HSZsnbKUAksCqk7PF7fcjashgPIRoyRXPExwYHRhcPMidELrwjjU1DbMY4Joz58URzsGO+RMaHQBGWIdBuqrF3UQ3tpnZeuNMHfMqUsAHjjnEIbWRbMOLmCe0ZwHMwLgmqp/cgDubsf//v2N89fvfjs7qOnb7744X//8atX//zZ7bMfwcfdX/92+/Ev1TKVMBrhcUCkQ6PW1pbVWIc8y0hIBNeU6NhPPC5pZ2cSFGdjpC9xctDu9tr7/ZasJxkxVVctxRT3w3mU5MOhWoScSG6pmWaCEnFHaX3S4xK30KJccV+7ImXpIv8+RRWL1y8/e/3yz/dq64DlWMve3t6o285boZhj2faSXAbF+qUeIITX69ZG3XEKwgsy6Fg1gCxOPd9t2Na25TQsO6vlfpbIq4QWWdrSCJ+bC3qK1FbwKEuB4jhlysQfwRHJ2OooFAY6Rb/4yZu/PC1J6ehqStkKOCdhjJjMTAfS9MHxyBgenhy3u8aoOxR5kvMKcsr41wjr2bPzVEqqMExw8C0Dmjs0M6MGN6KaEU0Mgr0LYw4nsXAOS8m2iqomeqTJRS/34yiZqR0pKOTUFZJZNVmpsaLWSJ6M51LRyVkrxJWvt3//fJWCXkgnB7Tu8aBlTMMsLyUNlTiKVODrU/vpv159+eGrFy/unv/89ssflCzoebKXAchzOE3FYZb2UPJ0v1mgoNOhDOal9d1Cf9FEcZE6imjImSvetPIRAlVbWJN/UW8KLU8alvEC+gIFvYdZ94brg+0eILNMAD9nGLptlN89M4Kq4Xlc//Pb3939+vO7T56/+fBPtx/98fbjT16//P2bZ39Qp+7u6fO7nz7TVX6xEUhfxI1WgUBDPpF4hjiNhujdxlcf/MIII24A5DASWZG++uDTgjHhqAQnuWWAdJkjZReWRIvKQs8ouJL5UNLLVBQAaIsW1sgkdBOLZtTLJ3m/LkyJcycZ3+iN6gkjRgRo6puwkrJwrvxQPa2iWurRO5ZjO5qrvBFLGGNWCP1+EI0BZKQM+QCxIFLS+nqFXFbOt98/bDX7uYhy4jD2SSzSUH2gHktBZZpeBQpwAex5SSDeiZbEllko/SqULlM/uEyavih5q58nShKoncSxAkGhfqsfJjMAwOnL3P18+VpZwLwHCp8WUXA+7nXKfBgXuND8ymxBkHxZjjRLlaYeE287CsIeiNDkQ+CVXjghHPo5XqGrK8CSsSlqTTeOo3hlwck5qdgA0DNUETOPeCZjiikV0vbzvUoJaZHLPtRtT68w6pCA8Mpv1an2ILp6tC7sfVXVHjsMfB3MateNLCy5geKDvUiUqs404xhgk3jeq/zC3qfhZa/a6t2N9c0Ny26MG9uNd/wtb9tpjLG9QfDGFvzZ3AbgKI2K26cwIW4u4u5WbRIAi2X1/J59DDfvitZUgKWiuItCpOSB1IU9G6M9GjP+RJQo/aUoZxnlTEHnJ8I/9SHHZ25jQxFAwCxOZpa8TusLV//biYI+ndKK91UrLUJlI5AGs5nCllU3FHreAbkB5FuwANV6/D3oZ+qBp4o1daqgyGf6qa1hMq5szkyVj4AvEutx2l0fcNnjteV/SmjwfzggkddjTfRCRs8veNV9dba3G2STOHVn4nn1dRjUoRuP6z6ebNuWNWn4G4540dbGoTtQcl1xEtFTKIN7RXU9c+Ff3e7/AGhKcYIjHwAA</t>
+          <t>Kh0AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAyd0lJVsWRhvwJocoKQokVVl5KYa7I2mq5S67MyuJbymQIEWaoigKp0iv6FOKAnWNNgFSu5f/Eliy+9S/0DOXvZFUzFUNwdo55zszZ86c24zQO9cz37gkEaNhsFexa1bFIIEbejQ426vE/LRqP6i846DutUv8QxzhGeEANkAqYLvXjO5Vzjmf75rm1dVV7apRC6Mzs25Ztvlk0B+752SGqzRgHAcuqaRS3tulKg5qe7MB4djDHCvJvUpv3Ku1CXU7QBvgAJ+RqNaKGQ0IY92AU04JE5IRwZy0O4PvqY059dqDmo3MFXqGbMXU9xSugFR0jYNlyYTOiFO37J2qtVNtWBO7vmvbu41G7cHDrfcSwRSI+pjxMYkuqSsJY45ncylu7TQsu27bjQYy14JgrswADhr63ohcUka8NvF9Vsoipj7Apsth1+WMaSEzJ6snur8KjyM8P59Q7pNyaowGLWMWaF2ySRy0H0bEBfvdS6UDcjWMtFkn8z5wJ+c04osOXpSe64iRaDgXRion6qBOGPCmTyJ+NIezJh64AjAcHsUEmXcwM6EOZS580yAmnnOKfZYXKjDRcRhdsDl2yQHEsSnmuAr8EHvgcJwyTt1s0RUGOozCOcwIi7dC39uHWTV4DSOduReAicWyrTC8yLRbx0TyVOX5wpnOME/gK3Q0Pg+vhoG/GMdT5kZ0SrxOK0Gv5SERkFq6HTMezkCLjIQULUcZDMwF/IMYXOagDnHpDPuHPtiRORC9RQJqxjw8pbwd+vEsYIlaS1R0DJuakOt0k+kYDeF8A2H3MOgFCV5Zei2rKDAKr9I1VxnSDjlyk7nJia8ylsEdoCUnuMqRhyJ2uU99KBH548hRi44xPieEr/UKxUEiG+6LouO0FgfxbAoRNoUwu5SrMmRmfASuCu4OejkWFJKq/JlY1q78AT1SNuoG3t24hIlgudxajg28JRKCPfktHwcXQD2m/PygmexlDQcpC9yJX+UhCN65jxeSnFopT0O9wPVjj6ic0AtOpYsK3dSh3slGK6Q+hLmDcLCYLOaQmhnd5fCxV4Fivct4BO1AxXHDOODRQiQPZGro22RYPA3kAtjfWOY0Ij+MoQtZ7MeB2w69zVfzlHWOAso31zCMI5URNxeR1hPJMWYdItKMzPsby7tl9sSiUvBZQGZhQN3NrQ1GFtp799gIS6JqYwmi4mtjvA+lXVU+Eesbi0XQQkKtK7VMk7HQpdJZdXh4OXnzjpDpkFMc+9C+caiyZ2nuXSajJrtYxuRJ6CjykwzoiOaYQXfserOaC/2D6ABrbjgTBBOa0uMxMvN40QS5pBuc9XFwFkObkeaVZXqaf0WJnEQ4YGI7aVexlIrXg1CSp1S346jkNYylI6jkFQIXmUs4NCGzeRhhfwCGofva7XTLBN3IAPNzPYLa5hM3MbKZiaZSRc0Sxd8Gk0VKbUMEvE6TS0QJEntRfXiGyWhI7HIAYem3sU+nkcqqSSlfx4MDy/rDJP+KzZXsFZMzgLsYVN/vkoVo0LOBpkuXtROGcmCRSJ3xaGunvm016tDZiDGSOx4R7BtdCGZOjF5wSRifgdiuMSKMevBFsb9rvEumhEIRlCbSZai0dF4O7Sd5XqrSBH2LlCIA+o0zCmVkFZhyMgHnhODIX+SAaqv90AXc7Y//ffOb569efH778dM3X37w33/86tU/f3bz7EP4uP3r324++aXapgKjCZ76RCo0ae3sWI0t8LOUhIRxTdkde7HLJe3kRDbF6Rjpu50ctLu99uN+S+aTlJiIq5JiimvjIoyz4VhtQi4kj9RMPEFBnEmSn/S4wM2VKEdc4y5JEZ3n3yWobPH65eevX/75TmltsKzXsh892q7a9be2YnAhtldwaSvWL9QAAd6qWtvVej0HXsKgkSoAqZ16ntOwrUdWHW7daS73UkdeB1pm6Zkm+MxcklOktmqPUhfIjxOmdPwJhEjKVqGQG2gX/fInb/7ytIDS1tWU4iygnGxjxGJmMpBTH4wmxnh4NGp3jUl3LPwk4+VwavJvAOvV03gqOFUQxNj/jgHFHYqZUYEbUcUITw2C3XNjAZGYi8OCs62jqoXuOeWylo+jMJ6rE8kJZNQ1yDSbrJVYk2skT9pzJelkrDVwpevN379YJ6A30ska2vQJJE9DBY4i5fg6aj/716uvPnr14sXt85/ffPWjwgx6nfRlAPwcoik/TN0eUp6uN0sUdDyWxrywvp+rL5ooLlKHIQ04c+wH8g6lRwhEbTGb/I16Myh5cmJpL6AvUdC7mHWvuQ5s5wCZRQLoOcdQbcPs7pkSVA7P7Pqf3/7u9tdf3H76/M1Hf7r5+I83n3z6+uXv3zz7g4q626fPb3/6TGf55UIgdRE3WtUEGvKJxDVENBqidhtfv/8LIwi5AS2HEcuM9PX7n+UmE4rK5iSbGVq6VJGiCivQvLCQM3KqpDoU5FIR1QC0RQlrpAhdxMI5dbNF3quKqUTcSca3epNqzIgRQjf1bdhJEZwJbyqnRVRJPXxo1e265iptxBammOVM/9gPp9BkJAz5ALEEKUh9s0CGles97g9bzX4GUUoMI49Ewg3VB0paSlFSeiwZJa6WowAXGj839sWb0QpslZXOnEtjpn58OW16Iv2tf6ooIFA7jiLVEAX6OX8cz6EZTl7p7ubLl8tc/3ugetV8R5yNe50iH8Y5LhTCIlsQJF+mJs1SaarHxDuPamcPhGmyIfAKr51gDv1irzqtS+grI1PknW4UhdHa5JNxEtgAOmnIKGZm8RQjz1R13V52VgkhSXjph7r56R2GHeITXu4528ykB+HlvWXh7MuK9tjQ97Qxy109UrNkE+Tf9IWj/L9P+srZmlEEjZV4ACz9Bp9cXEdw3y2pjdqKFBQ3QFhdP5Lv04jxJyIT6C9FOUkpJ6pDfSIuXOpDjk+cxrYiAMDMz24W1ExCl6u/rIR+n85oyWuhlcR3cRKw5XyuWrheOU8RpeWAXEODmZsBkuL0B1A21DtKmdmUw0IuTeXF2yWjZ+e8rGIPp5h4ZGpV3SmpV7c8a6f6iJBG1bbhf+zW65a1LV4+9eSQOSi5KrmImRxY9hdP53+WdoZdKh0AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175076</v>
+        <v>0.2499825759175085</v>
       </c>
     </row>
     <row r="22">
@@ -758,37 +758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46C1890-90CA-4240-AB04-9C8113C4B136}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>